--- a/data_year/zb/教育/技工学校数、学生数和教职工数.xlsx
+++ b/data_year/zb/教育/技工学校数、学生数和教职工数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,463 +463,265 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.1</v>
+        <v>421</v>
       </c>
       <c r="C2" t="n">
-        <v>50.4</v>
+        <v>158.6</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>26.5</v>
       </c>
       <c r="E2" t="n">
-        <v>3792</v>
+        <v>2998</v>
       </c>
       <c r="F2" t="n">
-        <v>64.59999999999999</v>
+        <v>121.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.7</v>
+        <v>429.4</v>
       </c>
       <c r="C3" t="n">
-        <v>55.1</v>
+        <v>163.5</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>26.5</v>
       </c>
       <c r="E3" t="n">
-        <v>3470</v>
+        <v>2914</v>
       </c>
       <c r="F3" t="n">
-        <v>47.7</v>
+        <v>118.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153</v>
+        <v>422.8</v>
       </c>
       <c r="C4" t="n">
-        <v>73.3</v>
+        <v>156.8</v>
       </c>
       <c r="D4" t="n">
-        <v>20.3</v>
+        <v>26.7</v>
       </c>
       <c r="E4" t="n">
-        <v>3075</v>
+        <v>2892</v>
       </c>
       <c r="F4" t="n">
-        <v>45.4</v>
+        <v>120.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>193.1</v>
+        <v>386.6</v>
       </c>
       <c r="C5" t="n">
-        <v>91.59999999999999</v>
+        <v>133.5</v>
       </c>
       <c r="D5" t="n">
-        <v>20.2</v>
+        <v>26.9</v>
       </c>
       <c r="E5" t="n">
-        <v>2970</v>
+        <v>2882</v>
       </c>
       <c r="F5" t="n">
-        <v>45.3</v>
+        <v>116.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234.4</v>
+        <v>339</v>
       </c>
       <c r="C6" t="n">
-        <v>109.7</v>
+        <v>124.4</v>
       </c>
       <c r="D6" t="n">
-        <v>20.4</v>
+        <v>26.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2884</v>
+        <v>2818</v>
       </c>
       <c r="F6" t="n">
-        <v>53.5</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>275.2974</v>
+        <v>321.5</v>
       </c>
       <c r="C7" t="n">
-        <v>118.3693</v>
+        <v>121.4</v>
       </c>
       <c r="D7" t="n">
-        <v>20.4009</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>2855</v>
+        <v>2545</v>
       </c>
       <c r="F7" t="n">
-        <v>68.99760000000001</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>320.8</v>
+        <v>323.2</v>
       </c>
       <c r="C8" t="n">
-        <v>134.8</v>
+        <v>127.2</v>
       </c>
       <c r="D8" t="n">
-        <v>21.5</v>
+        <v>26.5</v>
       </c>
       <c r="E8" t="n">
-        <v>2880</v>
+        <v>2526</v>
       </c>
       <c r="F8" t="n">
-        <v>86.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>367.1475</v>
+        <v>338.2</v>
       </c>
       <c r="C9" t="n">
-        <v>158.5487</v>
+        <v>130.9</v>
       </c>
       <c r="D9" t="n">
-        <v>23.9989</v>
+        <v>26.9</v>
       </c>
       <c r="E9" t="n">
-        <v>2995</v>
+        <v>2490</v>
       </c>
       <c r="F9" t="n">
-        <v>99.7</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.5</v>
+        <v>341.6</v>
       </c>
       <c r="C10" t="n">
-        <v>161.4</v>
+        <v>128.5</v>
       </c>
       <c r="D10" t="n">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="E10" t="n">
-        <v>3075</v>
+        <v>2379</v>
       </c>
       <c r="F10" t="n">
-        <v>109</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>414.3</v>
+        <v>360.305</v>
       </c>
       <c r="C11" t="n">
-        <v>156.4</v>
+        <v>142.9536</v>
       </c>
       <c r="D11" t="n">
-        <v>25.8</v>
+        <v>27.181</v>
       </c>
       <c r="E11" t="n">
-        <v>3064</v>
+        <v>2392</v>
       </c>
       <c r="F11" t="n">
-        <v>115.2</v>
+        <v>98.4247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>421</v>
+        <v>395.5306</v>
       </c>
       <c r="C12" t="n">
-        <v>158.6</v>
+        <v>160.0551</v>
       </c>
       <c r="D12" t="n">
-        <v>26.5</v>
+        <v>27.929</v>
       </c>
       <c r="E12" t="n">
-        <v>2998</v>
+        <v>2423</v>
       </c>
       <c r="F12" t="n">
-        <v>121.3</v>
+        <v>101.407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>429.4</v>
+        <v>426.7239</v>
       </c>
       <c r="C13" t="n">
-        <v>163.5</v>
+        <v>167.2485</v>
       </c>
       <c r="D13" t="n">
-        <v>26.5</v>
+        <v>29.8255</v>
       </c>
       <c r="E13" t="n">
-        <v>2914</v>
+        <v>2492</v>
       </c>
       <c r="F13" t="n">
-        <v>118.9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>422.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>156.8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2892</v>
-      </c>
-      <c r="F14" t="n">
-        <v>120.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>386.6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2882</v>
-      </c>
-      <c r="F15" t="n">
-        <v>116.9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>339</v>
-      </c>
-      <c r="C16" t="n">
-        <v>124.4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2818</v>
-      </c>
-      <c r="F16" t="n">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>321.5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>121.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>26</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2545</v>
-      </c>
-      <c r="F17" t="n">
-        <v>94.59999999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>323.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2526</v>
-      </c>
-      <c r="F18" t="n">
-        <v>93.09999999999999</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>338.2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2490</v>
-      </c>
-      <c r="F19" t="n">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>341.6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2379</v>
-      </c>
-      <c r="F20" t="n">
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>360.305</v>
-      </c>
-      <c r="C21" t="n">
-        <v>142.9536</v>
-      </c>
-      <c r="D21" t="n">
-        <v>27.181</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2392</v>
-      </c>
-      <c r="F21" t="n">
-        <v>98.4247</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>395.5306</v>
-      </c>
-      <c r="C22" t="n">
-        <v>160.0551</v>
-      </c>
-      <c r="D22" t="n">
-        <v>27.929</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2423</v>
-      </c>
-      <c r="F22" t="n">
-        <v>101.407</v>
+        <v>108.7036</v>
       </c>
     </row>
   </sheetData>
